--- a/UseCaseIScenarij/Scenarij/S1-OdabirSobe.xlsx
+++ b/UseCaseIScenarij/Scenarij/S1-OdabirSobe.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,9 +389,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -400,31 +396,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -710,14 +709,14 @@
   <dimension ref="B1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="28.26953125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="26.7265625" customWidth="1"/>
     <col min="9" max="9" width="13.54296875" customWidth="1"/>
@@ -728,77 +727,77 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="2:4" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="2:4" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="2:4" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="11" spans="2:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" spans="2:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="15" t="s">
@@ -860,9 +859,9 @@
       </c>
       <c r="D19" s="10"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="10"/>
@@ -888,21 +887,21 @@
       </c>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="58" x14ac:dyDescent="0.35">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="12"/>
       <c r="C26" s="13" t="s">
         <v>30</v>
@@ -910,10 +909,10 @@
       <c r="D26" s="12"/>
     </row>
     <row r="28" spans="2:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="2:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="15" t="s">
@@ -927,15 +926,15 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="18"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="17"/>
+      <c r="C30" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="2:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="5"/>

--- a/UseCaseIScenarij/Scenarij/S1-OdabirSobe.xlsx
+++ b/UseCaseIScenarij/Scenarij/S1-OdabirSobe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Scenarij 1</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Korisnik vrši pregled ponuđenih soba odabira jednu I pregleda detalje smještaja.Odabravši sobu I broj noći koliko ostaje, korisnik je plaća karticom iznos sobe.</t>
   </si>
   <si>
-    <t>Soba je već rezervisana I korisnik se izvještava o tome I upućuje se na odabir druge sobe</t>
-  </si>
-  <si>
     <t>Korisnik je logovan</t>
   </si>
   <si>
@@ -132,6 +129,15 @@
   </si>
   <si>
     <t>Podaci o odabranoj sobi za korisnički odeđeni broj dana ostanka se obračunavaju da bi definisali ukupnu cijenu koju korisnik plaća da bi rezervisao sobu za željeni period</t>
+  </si>
+  <si>
+    <t>Soba je već rezervisana I korisnik se izvještava o tome I upućuje se na odabir druge sobe. Nema dovoljno novca na bankovnom računu, korisnik se izvještava o tome</t>
+  </si>
+  <si>
+    <t>1. obavještava korisnika da nema dovoljno novca za rezervaciju sobe za odabrani datum ostanka</t>
+  </si>
+  <si>
+    <t>2. Upućivanje korisnika na odabir jefinijeg smještaja</t>
   </si>
 </sst>
 </file>
@@ -359,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -395,6 +401,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -706,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D31"/>
+  <dimension ref="B1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -727,99 +736,99 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="2:4" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="2:4" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="28"/>
+      <c r="C5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="2:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="29"/>
+      <c r="C6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="2:4" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="28"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="11" spans="2:4" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="25"/>
+    </row>
+    <row r="12" spans="2:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="24"/>
-    </row>
-    <row r="12" spans="2:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -827,13 +836,13 @@
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -841,13 +850,13 @@
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -855,27 +864,27 @@
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="10"/>
       <c r="C20" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="2:4" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -883,61 +892,92 @@
     <row r="23" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B23" s="10"/>
       <c r="C23" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="12"/>
       <c r="C26" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="28" spans="2:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="18"/>
     </row>
-    <row r="29" spans="2:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="17"/>
       <c r="C30" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="2:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
       <c r="C31" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="5"/>
+    </row>
+    <row r="33" spans="2:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="20"/>
+    </row>
+    <row r="34" spans="2:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="17"/>
+      <c r="C35" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="2:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="7"/>
+      <c r="C36" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/UseCaseIScenarij/Scenarij/S1-OdabirSobe.xlsx
+++ b/UseCaseIScenarij/Scenarij/S1-OdabirSobe.xlsx
@@ -718,7 +718,7 @@
   <dimension ref="B1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
